--- a/exercice 1 salsaJ exoplanetes.xlsx
+++ b/exercice 1 salsaJ exoplanetes.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Etoile 1" sheetId="1" r:id="rId1"/>
     <sheet name="Etoile 2" sheetId="2" r:id="rId2"/>
     <sheet name="Etoile 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Courbe" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>ETOILE 1</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>ETOILE 3</t>
+  </si>
+  <si>
+    <t>Etoile 1(bleue)</t>
+  </si>
+  <si>
+    <t>Etoile 2 (rouge)</t>
+  </si>
+  <si>
+    <t>Etoile 3 (verte)</t>
   </si>
 </sst>
 </file>
@@ -158,6 +168,389 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Courbe!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Etoile 1(bleue)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Courbe!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>312.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>345.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-131.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-530.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-546.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-525.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-452.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-489.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-186.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>335.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Courbe!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Etoile 2 (rouge)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Courbe!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-54.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-131.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-87.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-154.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-37.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-82.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-102.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Courbe!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Etoile 3 (verte)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Courbe!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>60.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-26.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-38.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-114.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-74.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-76.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-23.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-127.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-272.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-236.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>283.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="97240192"/>
+        <c:axId val="97241728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="97240192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97241728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97241728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97240192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,7 +843,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
+      <selection activeCell="E3" sqref="E3:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B3:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,7 +1797,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E3" sqref="E3:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,4 +2209,256 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>312.45</v>
+      </c>
+      <c r="B2">
+        <v>23.4</v>
+      </c>
+      <c r="C2">
+        <v>60.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>188.45</v>
+      </c>
+      <c r="B3">
+        <v>21.4</v>
+      </c>
+      <c r="C3">
+        <v>-26.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>345.45</v>
+      </c>
+      <c r="B4">
+        <v>36.4</v>
+      </c>
+      <c r="C4">
+        <v>-22.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>259.45</v>
+      </c>
+      <c r="B5">
+        <v>-54.6</v>
+      </c>
+      <c r="C5">
+        <v>93.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-16.55</v>
+      </c>
+      <c r="B6">
+        <v>-131.6</v>
+      </c>
+      <c r="C6">
+        <v>-38.950000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="B7">
+        <v>60.4</v>
+      </c>
+      <c r="C7">
+        <v>105.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>350.45</v>
+      </c>
+      <c r="B8">
+        <v>-87.6</v>
+      </c>
+      <c r="C8">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>384.45</v>
+      </c>
+      <c r="B9">
+        <v>-154.6</v>
+      </c>
+      <c r="C9">
+        <v>333.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-131.55000000000001</v>
+      </c>
+      <c r="B10">
+        <v>-32.6</v>
+      </c>
+      <c r="C10">
+        <v>-114.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-530.54999999999995</v>
+      </c>
+      <c r="B11">
+        <v>-37.6</v>
+      </c>
+      <c r="C11">
+        <v>-74.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-546.54999999999995</v>
+      </c>
+      <c r="B12">
+        <v>145.4</v>
+      </c>
+      <c r="C12">
+        <v>-76.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-525.54999999999995</v>
+      </c>
+      <c r="B13">
+        <v>25.4</v>
+      </c>
+      <c r="C13">
+        <v>-23.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-452.55</v>
+      </c>
+      <c r="B14">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="C14">
+        <v>53.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-489.55</v>
+      </c>
+      <c r="B15">
+        <v>-82.6</v>
+      </c>
+      <c r="C15">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-186.55</v>
+      </c>
+      <c r="B16">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C16">
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>159.44999999999999</v>
+      </c>
+      <c r="B17">
+        <v>83.4</v>
+      </c>
+      <c r="C17">
+        <v>-127.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>87.45</v>
+      </c>
+      <c r="B18">
+        <v>-102.6</v>
+      </c>
+      <c r="C18">
+        <v>-11.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>223.45</v>
+      </c>
+      <c r="B19">
+        <v>62.4</v>
+      </c>
+      <c r="C19">
+        <v>-272.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>197.45</v>
+      </c>
+      <c r="B20">
+        <v>87.4</v>
+      </c>
+      <c r="C20">
+        <v>-236.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>335.45</v>
+      </c>
+      <c r="B21">
+        <v>49.4</v>
+      </c>
+      <c r="C21">
+        <v>283.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>